--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H2">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I2">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J2">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>31.70840136287733</v>
+        <v>15.48961789314356</v>
       </c>
       <c r="R2">
-        <v>285.375612265896</v>
+        <v>139.406561038292</v>
       </c>
       <c r="S2">
-        <v>0.04959808602454805</v>
+        <v>0.06332492171581278</v>
       </c>
       <c r="T2">
-        <v>0.04959808602454806</v>
+        <v>0.06332492171581278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H3">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I3">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J3">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>48.71373460777955</v>
+        <v>12.75580456067644</v>
       </c>
       <c r="R3">
-        <v>438.4236114700161</v>
+        <v>114.802241046088</v>
       </c>
       <c r="S3">
-        <v>0.07619772349930944</v>
+        <v>0.05214849913015585</v>
       </c>
       <c r="T3">
-        <v>0.07619772349930948</v>
+        <v>0.05214849913015585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H4">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I4">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J4">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>24.34191259933156</v>
+        <v>7.359227517815556</v>
       </c>
       <c r="R4">
-        <v>219.077213393984</v>
+        <v>66.23304766034001</v>
       </c>
       <c r="S4">
-        <v>0.03807546969293569</v>
+        <v>0.030086120243212</v>
       </c>
       <c r="T4">
-        <v>0.0380754696929357</v>
+        <v>0.030086120243212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H5">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I5">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J5">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>38.74448014895556</v>
+        <v>7.438373578397446</v>
       </c>
       <c r="R5">
-        <v>348.7003213406001</v>
+        <v>66.94536220557701</v>
       </c>
       <c r="S5">
-        <v>0.06060387710539294</v>
+        <v>0.03040968652645012</v>
       </c>
       <c r="T5">
-        <v>0.06060387710539297</v>
+        <v>0.03040968652645012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H6">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I6">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J6">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>19.46219446425066</v>
+        <v>5.602816813146778</v>
       </c>
       <c r="R6">
-        <v>175.159750178256</v>
+        <v>50.42535131832101</v>
       </c>
       <c r="S6">
-        <v>0.03044264465488</v>
+        <v>0.02290553185547655</v>
       </c>
       <c r="T6">
-        <v>0.03044264465488001</v>
+        <v>0.02290553185547655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3344773333333333</v>
+        <v>0.08758366666666667</v>
       </c>
       <c r="H7">
-        <v>1.003432</v>
+        <v>0.262751</v>
       </c>
       <c r="I7">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="J7">
-        <v>0.2948820465348644</v>
+        <v>0.2371976925785164</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>25.54942014665778</v>
+        <v>9.373996434488111</v>
       </c>
       <c r="R7">
-        <v>229.9447813199201</v>
+        <v>84.36596791039301</v>
       </c>
       <c r="S7">
-        <v>0.03996424555779822</v>
+        <v>0.03832293310740911</v>
       </c>
       <c r="T7">
-        <v>0.03996424555779824</v>
+        <v>0.03832293310740911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.489292</v>
       </c>
       <c r="I8">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J8">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>15.46160289849733</v>
+        <v>28.84459476147378</v>
       </c>
       <c r="R8">
-        <v>139.154426086476</v>
+        <v>259.601352853264</v>
       </c>
       <c r="S8">
-        <v>0.02418494397938591</v>
+        <v>0.1179229673575875</v>
       </c>
       <c r="T8">
-        <v>0.02418494397938592</v>
+        <v>0.1179229673575875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.489292</v>
       </c>
       <c r="I9">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J9">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>23.75371787396622</v>
@@ -1013,10 +1013,10 @@
         <v>213.783460865696</v>
       </c>
       <c r="S9">
-        <v>0.0371554191279769</v>
+        <v>0.09711035709242674</v>
       </c>
       <c r="T9">
-        <v>0.03715541912797691</v>
+        <v>0.09711035709242674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.489292</v>
       </c>
       <c r="I10">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J10">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>11.86956674647822</v>
+        <v>13.70427191769778</v>
       </c>
       <c r="R10">
-        <v>106.826100718304</v>
+        <v>123.33844725928</v>
       </c>
       <c r="S10">
-        <v>0.01856630316453521</v>
+        <v>0.0560260396574768</v>
       </c>
       <c r="T10">
-        <v>0.01856630316453521</v>
+        <v>0.0560260396574768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.489292</v>
       </c>
       <c r="I11">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J11">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>18.89252503512222</v>
+        <v>13.85165683449823</v>
       </c>
       <c r="R11">
-        <v>170.0327253161</v>
+        <v>124.664911510484</v>
       </c>
       <c r="S11">
-        <v>0.02955157124414203</v>
+        <v>0.05662858120387681</v>
       </c>
       <c r="T11">
-        <v>0.02955157124414204</v>
+        <v>0.05662858120387681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.489292</v>
       </c>
       <c r="I12">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J12">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>9.490125941570666</v>
+        <v>10.43350337063689</v>
       </c>
       <c r="R12">
-        <v>85.41113347413599</v>
+        <v>93.90153033573201</v>
       </c>
       <c r="S12">
-        <v>0.01484439651962021</v>
+        <v>0.04265442754786788</v>
       </c>
       <c r="T12">
-        <v>0.01484439651962021</v>
+        <v>0.04265442754786788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.489292</v>
       </c>
       <c r="I13">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="J13">
-        <v>0.1437899392416595</v>
+        <v>0.4417069141397272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>12.45836975739111</v>
+        <v>17.45615226363956</v>
       </c>
       <c r="R13">
-        <v>112.12532781652</v>
+        <v>157.105370372756</v>
       </c>
       <c r="S13">
-        <v>0.01948730520599922</v>
+        <v>0.07136454128049149</v>
       </c>
       <c r="T13">
-        <v>0.01948730520599922</v>
+        <v>0.07136454128049149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H14">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I14">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J14">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>60.35909673165033</v>
+        <v>20.96835300173378</v>
       </c>
       <c r="R14">
-        <v>543.2318705848529</v>
+        <v>188.715177015604</v>
       </c>
       <c r="S14">
-        <v>0.09441332717471164</v>
+        <v>0.08572318061713294</v>
       </c>
       <c r="T14">
-        <v>0.09441332717471167</v>
+        <v>0.08572318061713295</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H15">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I15">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J15">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>92.72990415698754</v>
+        <v>17.26757978760622</v>
       </c>
       <c r="R15">
-        <v>834.569137412888</v>
+        <v>155.408218088456</v>
       </c>
       <c r="S15">
-        <v>0.1450475446804113</v>
+        <v>0.07059361604754213</v>
       </c>
       <c r="T15">
-        <v>0.1450475446804113</v>
+        <v>0.07059361604754215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H16">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I16">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J16">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>46.33648478212356</v>
+        <v>9.962213495397778</v>
       </c>
       <c r="R16">
-        <v>417.028363039112</v>
+        <v>89.65992145858002</v>
       </c>
       <c r="S16">
-        <v>0.07247924397063892</v>
+        <v>0.04072769219126605</v>
       </c>
       <c r="T16">
-        <v>0.07247924397063894</v>
+        <v>0.04072769219126606</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H17">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I17">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J17">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>73.75275083613056</v>
+        <v>10.06935381018322</v>
       </c>
       <c r="R17">
-        <v>663.774757525175</v>
+        <v>90.62418429164902</v>
       </c>
       <c r="S17">
-        <v>0.1153635983932027</v>
+        <v>0.04116570506499867</v>
       </c>
       <c r="T17">
-        <v>0.1153635983932027</v>
+        <v>0.04116570506499868</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H18">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I18">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J18">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>37.04760971182866</v>
+        <v>7.584553831641889</v>
       </c>
       <c r="R18">
-        <v>333.428487406458</v>
+        <v>68.26098448477701</v>
       </c>
       <c r="S18">
-        <v>0.0579496428237598</v>
+        <v>0.03100730314662508</v>
       </c>
       <c r="T18">
-        <v>0.05794964282375982</v>
+        <v>0.03100730314662509</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.6367003333333333</v>
+        <v>0.1185623333333333</v>
       </c>
       <c r="H19">
-        <v>1.910101</v>
+        <v>0.355687</v>
       </c>
       <c r="I19">
-        <v>0.561328014223476</v>
+        <v>0.3210953932817563</v>
       </c>
       <c r="J19">
-        <v>0.5613280142234761</v>
+        <v>0.3210953932817564</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>48.63505745436778</v>
+        <v>12.68961362580456</v>
       </c>
       <c r="R19">
-        <v>437.7155170893101</v>
+        <v>114.206522632241</v>
       </c>
       <c r="S19">
-        <v>0.0760746571807516</v>
+        <v>0.05187789621419147</v>
       </c>
       <c r="T19">
-        <v>0.07607465718075163</v>
+        <v>0.05187789621419148</v>
       </c>
     </row>
   </sheetData>
